--- a/public/data/prihod-razhod/raw/report.xlsx
+++ b/public/data/prihod-razhod/raw/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="87">
   <si>
     <t/>
   </si>
@@ -28,14 +28,14 @@
         <rFont val="Calibri"/>
         <vertAlign val="superscript"/>
       </rPr>
-      <t>1, 2, 3, 4</t>
+      <t>1, 2, 3, 4, 5</t>
     </r>
   </si>
   <si>
     <t>(млн. лв.)</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33</t>
+    <t>7589:MLv_fig:34</t>
   </si>
   <si>
     <t>7589:</t>
@@ -44,163 +44,163 @@
     <t>1995</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:1995:0</t>
+    <t>7589:MLv_fig:34;7587:1995:0</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:1996:1</t>
+    <t>7589:MLv_fig:34;7587:1996:1</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:1997:2</t>
+    <t>7589:MLv_fig:34;7587:1997:2</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:1998:3</t>
+    <t>7589:MLv_fig:34;7587:1998:3</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:1999:4</t>
+    <t>7589:MLv_fig:34;7587:1999:4</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2000:5</t>
+    <t>7589:MLv_fig:34;7587:2000:5</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2001:6</t>
+    <t>7589:MLv_fig:34;7587:2001:6</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2002:7</t>
+    <t>7589:MLv_fig:34;7587:2002:7</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2003:8</t>
+    <t>7589:MLv_fig:34;7587:2003:8</t>
   </si>
   <si>
     <t>2004</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2004:9</t>
+    <t>7589:MLv_fig:34;7587:2004:9</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2005:10</t>
+    <t>7589:MLv_fig:34;7587:2005:10</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2006:11</t>
+    <t>7589:MLv_fig:34;7587:2006:11</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2007:12</t>
+    <t>7589:MLv_fig:34;7587:2007:12</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2008:13</t>
+    <t>7589:MLv_fig:34;7587:2008:13</t>
   </si>
   <si>
     <t>2009</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2009:14</t>
+    <t>7589:MLv_fig:34;7587:2009:14</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2010:15</t>
+    <t>7589:MLv_fig:34;7587:2010:15</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2011:16</t>
+    <t>7589:MLv_fig:34;7587:2011:16</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2012:17</t>
+    <t>7589:MLv_fig:34;7587:2012:17</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2013:18</t>
+    <t>7589:MLv_fig:34;7587:2013:18</t>
   </si>
   <si>
     <t>2014</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2014:19</t>
+    <t>7589:MLv_fig:34;7587:2014:19</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2015:20</t>
+    <t>7589:MLv_fig:34;7587:2015:20</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2016:21</t>
+    <t>7589:MLv_fig:34;7587:2016:21</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2017:22</t>
+    <t>7589:MLv_fig:34;7587:2017:22</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2018:23</t>
+    <t>7589:MLv_fig:34;7587:2018:23</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2019:24</t>
+    <t>7589:MLv_fig:34;7587:2019:24</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2020:25</t>
+    <t>7589:MLv_fig:34;7587:2020:25</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>7589:MLv_fig:33;7587:2021:26</t>
+    <t>7589:MLv_fig:34;7587:2021:26</t>
   </si>
   <si>
     <t>2022</t>
@@ -215,28 +215,34 @@
     <t>7589:;7587:2023:28</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>7589:;7587:2024:29</t>
+  </si>
+  <si>
     <t>Общо разходи</t>
   </si>
   <si>
-    <t>7586:69:30</t>
+    <t>7586:69:31</t>
   </si>
   <si>
     <t>69=7+11+12+22+25+38+41+42+51+57+67</t>
   </si>
   <si>
-    <t>7586:69:307588:69:29</t>
+    <t>7586:69:317588:69:30</t>
   </si>
   <si>
     <t>Общо приходи</t>
   </si>
   <si>
-    <t>7586:70:32</t>
+    <t>7586:70:33</t>
   </si>
   <si>
     <t>70=6+13+15+19+33+34+37+54</t>
   </si>
   <si>
-    <t>7586:70:327588:70:31</t>
+    <t>7586:70:337588:70:32</t>
   </si>
   <si>
     <t>Бележки</t>
@@ -333,6 +339,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <color indexed="53"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <vertAlign val="superscript"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 2024 г. - Предварителни данн</t>
+    </r>
+    <r>
+      <t>и</t>
+    </r>
+  </si>
+  <si>
     <t>Легенда</t>
   </si>
   <si>
@@ -354,7 +382,7 @@
     <t>Зависимости междъ макроикономически показатели</t>
   </si>
   <si>
-    <t>Дата на изготвяне на справката: 20/02/2025</t>
+    <t>Дата на изготвяне на справката: 30/05/2025</t>
   </si>
 </sst>
 </file>
@@ -661,6 +689,7 @@
     <col min="29" max="29" width="11.0" customWidth="true"/>
     <col min="30" max="30" width="11.0" customWidth="true"/>
     <col min="31" max="31" width="11.0" customWidth="true"/>
+    <col min="32" max="32" width="11.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -762,6 +791,9 @@
       <c r="AE2" t="s" s="8">
         <v>0</v>
       </c>
+      <c r="AF2" t="s" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
@@ -857,13 +889,16 @@
       <c r="AE3" t="s" s="9">
         <v>61</v>
       </c>
+      <c r="AF3" t="s" s="9">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n" s="12">
         <v>405.136</v>
@@ -941,24 +976,27 @@
         <v>43699.89</v>
       </c>
       <c r="AB4" t="n" s="12">
-        <v>50018.344999999994</v>
+        <v>50060.344999999994</v>
       </c>
       <c r="AC4" t="n" s="12">
-        <v>57881.53300000001</v>
+        <v>57942.59700000001</v>
       </c>
       <c r="AD4" t="n" s="12">
-        <v>69401.317</v>
+        <v>69513.023</v>
       </c>
       <c r="AE4" t="n" s="12">
-        <v>71856.49619185369</v>
+        <v>71825.7071918537</v>
+      </c>
+      <c r="AF4" t="n" s="12">
+        <v>80671.22275859285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="n" s="13">
         <v>334.90883527820324</v>
@@ -1047,88 +1085,96 @@
       <c r="AE5" t="n" s="13">
         <v>68147.35719475034</v>
       </c>
+      <c r="AF5" t="n" s="13">
+        <v>74513.02102077287</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
-        <v>77</v>
+      <c r="A14" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="8">
+      <c r="A15" t="s" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="9">
+      <c r="B16" t="s" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="9">
         <v>0</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="3">
-        <v>80</v>
+      <c r="B17" t="s" s="3">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="14">
+      <c r="A18" t="s" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="14">
         <v>0</v>
       </c>
-      <c r="B18" t="s" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="15">
+      <c r="B19" t="s" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="15">
         <v>0</v>
       </c>
-      <c r="B19" t="s" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="3">
-        <v>83</v>
+      <c r="B20" t="s" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="3">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="C2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD2:AF2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
